--- a/outfile.xlsx
+++ b/outfile.xlsx
@@ -14,87 +14,141 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
-  <si>
-    <t>SunlifePlanMembersCA</t>
-  </si>
-  <si>
-    <t>RoyalBank</t>
-  </si>
-  <si>
-    <t>RBCBranchInvestments</t>
-  </si>
-  <si>
-    <t>RoyalBankCC</t>
-  </si>
-  <si>
-    <t>RBCDirectInvestments</t>
-  </si>
-  <si>
-    <t>TDBankCA</t>
-  </si>
-  <si>
-    <t>CanadaAmexCreditCard</t>
-  </si>
-  <si>
-    <t>Desjardins</t>
-  </si>
-  <si>
-    <t>CIBCBank</t>
-  </si>
-  <si>
-    <t>CACapitalOnceCostcoCC</t>
-  </si>
-  <si>
-    <t>BMOInvestorLine</t>
-  </si>
-  <si>
-    <t>VancityCACC</t>
-  </si>
-  <si>
-    <t>TDBankCACredits</t>
-  </si>
-  <si>
-    <t>CATireFinancialCC</t>
-  </si>
-  <si>
-    <t>CATDBankInvestments</t>
-  </si>
-  <si>
-    <t>RBCLoan</t>
-  </si>
-  <si>
-    <t>BMOMosaikCard</t>
-  </si>
-  <si>
-    <t>RBCSecurities</t>
-  </si>
-  <si>
-    <t>mbanx</t>
-  </si>
-  <si>
-    <t>CAScotiabank</t>
-  </si>
-  <si>
-    <t>VancityCA</t>
-  </si>
-  <si>
-    <t>CAScotiaCC</t>
-  </si>
-  <si>
-    <t>CIBCCC</t>
-  </si>
-  <si>
-    <t>CAINGDirect</t>
-  </si>
-  <si>
-    <t>ChaseCAOnlineCreditCard</t>
-  </si>
-  <si>
-    <t>RBCMortgage</t>
-  </si>
-  <si>
-    <t>BancorpSouthCC</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="45">
+  <si>
+    <t>NEDBankSADF</t>
+  </si>
+  <si>
+    <t>NEDBankCreditsSADF</t>
+  </si>
+  <si>
+    <t>NEDBankLoanSADF</t>
+  </si>
+  <si>
+    <t>ZAMomentum</t>
+  </si>
+  <si>
+    <t>FNBankZA</t>
+  </si>
+  <si>
+    <t>DiscoveryInsuranceSA</t>
+  </si>
+  <si>
+    <t>ZATFGCredits</t>
+  </si>
+  <si>
+    <t>ZAFNBLoan</t>
+  </si>
+  <si>
+    <t>ZAOldMutualInvestments</t>
+  </si>
+  <si>
+    <t>SAABSA</t>
+  </si>
+  <si>
+    <t>ZAWoolworthsStoreCard</t>
+  </si>
+  <si>
+    <t>ZAStandardRewards</t>
+  </si>
+  <si>
+    <t>ZAStandardBankOnlineShareTrading</t>
+  </si>
+  <si>
+    <t>ZAFNBCredits</t>
+  </si>
+  <si>
+    <t>ZAPSGOnlineInvestments</t>
+  </si>
+  <si>
+    <t>ZAInvestecInvestment</t>
+  </si>
+  <si>
+    <t>WesBankZA</t>
+  </si>
+  <si>
+    <t>StandardSACC</t>
+  </si>
+  <si>
+    <t>NEDBANKSALoan</t>
+  </si>
+  <si>
+    <t>ZAAlexanderForbesInvestments</t>
+  </si>
+  <si>
+    <t>ZASatrixInvestments</t>
+  </si>
+  <si>
+    <t>DiscoveryCCSA</t>
+  </si>
+  <si>
+    <t>ZASanlamGlacier</t>
+  </si>
+  <si>
+    <t>ZAEdgarsCC</t>
+  </si>
+  <si>
+    <t>ZASAHomeLoans</t>
+  </si>
+  <si>
+    <t>NEDBankInvestmentDF</t>
+  </si>
+  <si>
+    <t>ZAAllanGrayInvestments</t>
+  </si>
+  <si>
+    <t>ZANedBankCC</t>
+  </si>
+  <si>
+    <t>ZALibertyInvestment</t>
+  </si>
+  <si>
+    <t>InvestecBankDF</t>
+  </si>
+  <si>
+    <t>ZAFNBMortgage</t>
+  </si>
+  <si>
+    <t>StandardSA</t>
+  </si>
+  <si>
+    <t>SAABSACC</t>
+  </si>
+  <si>
+    <t>ZAFNBInvestments</t>
+  </si>
+  <si>
+    <t>NEDBANKSA</t>
+  </si>
+  <si>
+    <t>ZAStandardBankUnitTrusts</t>
+  </si>
+  <si>
+    <t>ZAPicknPayRewards</t>
+  </si>
+  <si>
+    <t>FNBankZARewards</t>
+  </si>
+  <si>
+    <t>InvestecLoanDF</t>
+  </si>
+  <si>
+    <t>ZAStandardMortgage</t>
+  </si>
+  <si>
+    <t>InvestecInvestmentDF</t>
+  </si>
+  <si>
+    <t>ClicksClubCard</t>
+  </si>
+  <si>
+    <t>ZADinersClubCC</t>
+  </si>
+  <si>
+    <t>InvestecRewardsDF</t>
+  </si>
+  <si>
+    <t>ZADisChemRewards</t>
   </si>
 </sst>
 </file>
@@ -426,280 +480,445 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G27"/>
+  <dimension ref="A1:L45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:12">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1">
-        <v>1983</v>
+        <v>5723</v>
       </c>
       <c r="C1">
-        <v>1554</v>
+        <v>4835</v>
       </c>
       <c r="D1">
-        <v>357</v>
+        <v>748</v>
       </c>
       <c r="E1">
-        <v>63</v>
+        <v>119</v>
       </c>
       <c r="F1">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="G1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
+        <v>0</v>
+      </c>
+      <c r="H1">
+        <v>0</v>
+      </c>
+      <c r="I1">
+        <v>0</v>
+      </c>
+      <c r="J1">
+        <v>0</v>
+      </c>
+      <c r="K1">
+        <v>13</v>
+      </c>
+      <c r="L1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12">
       <c r="A2" t="s">
         <v>1</v>
       </c>
       <c r="B2">
-        <v>3176</v>
+        <v>2097</v>
       </c>
       <c r="C2">
-        <v>3059</v>
+        <v>1735</v>
       </c>
       <c r="D2">
-        <v>48</v>
+        <v>312</v>
       </c>
       <c r="E2">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="F2">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:7">
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <v>0</v>
+      </c>
+      <c r="K2">
+        <v>20</v>
+      </c>
+      <c r="L2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
       <c r="A3" t="s">
         <v>2</v>
       </c>
       <c r="B3">
-        <v>1611</v>
+        <v>739</v>
       </c>
       <c r="C3">
-        <v>278</v>
+        <v>620</v>
       </c>
       <c r="D3">
-        <v>46</v>
+        <v>103</v>
       </c>
       <c r="E3">
-        <v>26</v>
+        <v>8</v>
       </c>
       <c r="F3">
-        <v>1261</v>
+        <v>8</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:7">
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>8</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
       <c r="A4" t="s">
         <v>3</v>
       </c>
       <c r="B4">
-        <v>1709</v>
+        <v>345</v>
       </c>
       <c r="C4">
-        <v>1520</v>
+        <v>287</v>
       </c>
       <c r="D4">
-        <v>23</v>
+        <v>50</v>
       </c>
       <c r="E4">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="F4">
-        <v>160</v>
+        <v>7</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:7">
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>7</v>
+      </c>
+      <c r="L4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
       <c r="A5" t="s">
         <v>4</v>
       </c>
       <c r="B5">
-        <v>681</v>
+        <v>9387</v>
       </c>
       <c r="C5">
-        <v>638</v>
+        <v>8894</v>
       </c>
       <c r="D5">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="E5">
-        <v>8</v>
+        <v>193</v>
       </c>
       <c r="F5">
-        <v>11</v>
+        <v>269</v>
       </c>
       <c r="G5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
+        <v>1</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>23</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
       <c r="A6" t="s">
         <v>5</v>
       </c>
       <c r="B6">
-        <v>443</v>
+        <v>864</v>
       </c>
       <c r="C6">
-        <v>357</v>
+        <v>800</v>
       </c>
       <c r="D6">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="E6">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="F6">
-        <v>56</v>
+        <v>21</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:7">
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <v>15</v>
+      </c>
+      <c r="L6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
       <c r="A7" t="s">
         <v>6</v>
       </c>
       <c r="B7">
-        <v>1265</v>
+        <v>574</v>
       </c>
       <c r="C7">
-        <v>1179</v>
+        <v>542</v>
       </c>
       <c r="D7">
-        <v>2</v>
+        <v>25</v>
       </c>
       <c r="E7">
-        <v>57</v>
+        <v>0</v>
       </c>
       <c r="F7">
-        <v>27</v>
+        <v>7</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:7">
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
+      <c r="L7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
       <c r="A8" t="s">
         <v>7</v>
       </c>
       <c r="B8">
-        <v>66</v>
+        <v>617</v>
       </c>
       <c r="C8">
-        <v>37</v>
+        <v>499</v>
       </c>
       <c r="D8">
-        <v>2</v>
+        <v>24</v>
       </c>
       <c r="E8">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="F8">
-        <v>10</v>
+        <v>75</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:7">
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="K8">
+        <v>58</v>
+      </c>
+      <c r="L8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12">
       <c r="A9" t="s">
         <v>8</v>
       </c>
       <c r="B9">
-        <v>80</v>
+        <v>1217</v>
       </c>
       <c r="C9">
-        <v>68</v>
+        <v>1157</v>
       </c>
       <c r="D9">
-        <v>2</v>
+        <v>22</v>
       </c>
       <c r="E9">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="F9">
-        <v>8</v>
+        <v>26</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:7">
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>0</v>
+      </c>
+      <c r="K9">
+        <v>26</v>
+      </c>
+      <c r="L9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12">
       <c r="A10" t="s">
         <v>9</v>
       </c>
       <c r="B10">
-        <v>265</v>
+        <v>2897</v>
       </c>
       <c r="C10">
-        <v>261</v>
+        <v>2690</v>
       </c>
       <c r="D10">
-        <v>2</v>
+        <v>21</v>
       </c>
       <c r="E10">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="F10">
-        <v>0</v>
+        <v>176</v>
       </c>
       <c r="G10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
+        <v>3</v>
+      </c>
+      <c r="H10">
+        <v>1</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+      <c r="K10">
+        <v>0</v>
+      </c>
+      <c r="L10">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12">
       <c r="A11" t="s">
         <v>10</v>
       </c>
       <c r="B11">
-        <v>81</v>
+        <v>699</v>
       </c>
       <c r="C11">
-        <v>62</v>
+        <v>614</v>
       </c>
       <c r="D11">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="E11">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F11">
-        <v>2</v>
+        <v>34</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:7">
+      <c r="H11">
+        <v>22</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <v>0</v>
+      </c>
+      <c r="K11">
+        <v>34</v>
+      </c>
+      <c r="L11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12">
       <c r="A12" t="s">
         <v>11</v>
       </c>
       <c r="B12">
-        <v>9</v>
+        <v>582</v>
       </c>
       <c r="C12">
-        <v>6</v>
+        <v>565</v>
       </c>
       <c r="D12">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="E12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F12">
         <v>2</v>
@@ -707,206 +926,341 @@
       <c r="G12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:7">
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <v>0</v>
+      </c>
+      <c r="K12">
+        <v>0</v>
+      </c>
+      <c r="L12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12">
       <c r="A13" t="s">
         <v>12</v>
       </c>
       <c r="B13">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="C13">
-        <v>202</v>
+        <v>166</v>
       </c>
       <c r="D13">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F13">
-        <v>22</v>
+        <v>49</v>
       </c>
       <c r="G13">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <v>1</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <v>0</v>
+      </c>
+      <c r="K13">
+        <v>0</v>
+      </c>
+      <c r="L13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12">
       <c r="A14" t="s">
         <v>13</v>
       </c>
       <c r="B14">
-        <v>68</v>
+        <v>2179</v>
       </c>
       <c r="C14">
-        <v>56</v>
+        <v>1997</v>
       </c>
       <c r="D14">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="E14">
-        <v>4</v>
+        <v>83</v>
       </c>
       <c r="F14">
-        <v>7</v>
+        <v>86</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:7">
+      <c r="H14">
+        <v>0</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <v>0</v>
+      </c>
+      <c r="K14">
+        <v>26</v>
+      </c>
+      <c r="L14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12">
       <c r="A15" t="s">
         <v>14</v>
       </c>
       <c r="B15">
-        <v>92</v>
+        <v>231</v>
       </c>
       <c r="C15">
-        <v>55</v>
+        <v>205</v>
       </c>
       <c r="D15">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="E15">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="F15">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="G15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
+      <c r="K15">
+        <v>1</v>
+      </c>
+      <c r="L15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12">
       <c r="A16" t="s">
         <v>15</v>
       </c>
       <c r="B16">
-        <v>412</v>
+        <v>88</v>
       </c>
       <c r="C16">
-        <v>170</v>
+        <v>57</v>
       </c>
       <c r="D16">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="E16">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F16">
-        <v>239</v>
+        <v>14</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:7">
+      <c r="H16">
+        <v>9</v>
+      </c>
+      <c r="I16">
+        <v>0</v>
+      </c>
+      <c r="J16">
+        <v>0</v>
+      </c>
+      <c r="K16">
+        <v>1</v>
+      </c>
+      <c r="L16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12">
       <c r="A17" t="s">
         <v>16</v>
       </c>
       <c r="B17">
-        <v>114</v>
+        <v>262</v>
       </c>
       <c r="C17">
-        <v>85</v>
+        <v>229</v>
       </c>
       <c r="D17">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="E17">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="F17">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:7">
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12">
       <c r="A18" t="s">
         <v>17</v>
       </c>
       <c r="B18">
+        <v>535</v>
+      </c>
+      <c r="C18">
+        <v>487</v>
+      </c>
+      <c r="D18">
+        <v>6</v>
+      </c>
+      <c r="E18">
+        <v>16</v>
+      </c>
+      <c r="F18">
+        <v>23</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>3</v>
+      </c>
+      <c r="K18">
         <v>22</v>
       </c>
-      <c r="C18">
-        <v>19</v>
-      </c>
-      <c r="D18">
-        <v>0</v>
-      </c>
-      <c r="E18">
-        <v>2</v>
-      </c>
-      <c r="F18">
-        <v>1</v>
-      </c>
-      <c r="G18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7">
+      <c r="L18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12">
       <c r="A19" t="s">
         <v>18</v>
       </c>
       <c r="B19">
-        <v>71</v>
+        <v>86</v>
       </c>
       <c r="C19">
-        <v>56</v>
+        <v>81</v>
       </c>
       <c r="D19">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E19">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F19">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:7">
+      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="K19">
+        <v>0</v>
+      </c>
+      <c r="L19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12">
       <c r="A20" t="s">
         <v>19</v>
       </c>
       <c r="B20">
-        <v>125</v>
+        <v>358</v>
       </c>
       <c r="C20">
-        <v>105</v>
+        <v>330</v>
       </c>
       <c r="D20">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E20">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F20">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G20">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7">
+        <v>0</v>
+      </c>
+      <c r="H20">
+        <v>4</v>
+      </c>
+      <c r="I20">
+        <v>0</v>
+      </c>
+      <c r="J20">
+        <v>0</v>
+      </c>
+      <c r="K20">
+        <v>11</v>
+      </c>
+      <c r="L20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12">
       <c r="A21" t="s">
         <v>20</v>
       </c>
       <c r="B21">
-        <v>51</v>
+        <v>509</v>
       </c>
       <c r="C21">
-        <v>50</v>
+        <v>505</v>
       </c>
       <c r="D21">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F21">
         <v>0</v>
@@ -914,142 +1268,931 @@
       <c r="G21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:7">
+      <c r="H21">
+        <v>0</v>
+      </c>
+      <c r="I21">
+        <v>0</v>
+      </c>
+      <c r="J21">
+        <v>0</v>
+      </c>
+      <c r="K21">
+        <v>0</v>
+      </c>
+      <c r="L21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12">
       <c r="A22" t="s">
         <v>21</v>
       </c>
       <c r="B22">
-        <v>85</v>
+        <v>1007</v>
       </c>
       <c r="C22">
-        <v>78</v>
+        <v>986</v>
       </c>
       <c r="D22">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E22">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F22">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:7">
+      <c r="H22">
+        <v>0</v>
+      </c>
+      <c r="I22">
+        <v>0</v>
+      </c>
+      <c r="J22">
+        <v>0</v>
+      </c>
+      <c r="K22">
+        <v>9</v>
+      </c>
+      <c r="L22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12">
       <c r="A23" t="s">
         <v>22</v>
       </c>
       <c r="B23">
-        <v>43</v>
+        <v>397</v>
       </c>
       <c r="C23">
-        <v>33</v>
+        <v>357</v>
       </c>
       <c r="D23">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E23">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="F23">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:7">
+      <c r="H23">
+        <v>23</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
+      </c>
+      <c r="J23">
+        <v>0</v>
+      </c>
+      <c r="K23">
+        <v>0</v>
+      </c>
+      <c r="L23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12">
       <c r="A24" t="s">
         <v>23</v>
       </c>
       <c r="B24">
-        <v>427</v>
+        <v>826</v>
       </c>
       <c r="C24">
-        <v>400</v>
+        <v>734</v>
       </c>
       <c r="D24">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>42</v>
       </c>
       <c r="F24">
-        <v>26</v>
+        <v>46</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:7">
+      <c r="H24">
+        <v>0</v>
+      </c>
+      <c r="I24">
+        <v>0</v>
+      </c>
+      <c r="J24">
+        <v>0</v>
+      </c>
+      <c r="K24">
+        <v>0</v>
+      </c>
+      <c r="L24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12">
       <c r="A25" t="s">
         <v>24</v>
       </c>
       <c r="B25">
-        <v>266</v>
+        <v>173</v>
       </c>
       <c r="C25">
-        <v>257</v>
+        <v>170</v>
       </c>
       <c r="D25">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="1:7">
+      <c r="H25">
+        <v>0</v>
+      </c>
+      <c r="I25">
+        <v>0</v>
+      </c>
+      <c r="J25">
+        <v>0</v>
+      </c>
+      <c r="K25">
+        <v>0</v>
+      </c>
+      <c r="L25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12">
       <c r="A26" t="s">
         <v>25</v>
       </c>
       <c r="B26">
-        <v>404</v>
+        <v>584</v>
       </c>
       <c r="C26">
-        <v>92</v>
+        <v>580</v>
       </c>
       <c r="D26">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E26">
         <v>0</v>
       </c>
       <c r="F26">
-        <v>312</v>
+        <v>1</v>
       </c>
       <c r="G26">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="1:7">
+      <c r="H26">
+        <v>0</v>
+      </c>
+      <c r="I26">
+        <v>0</v>
+      </c>
+      <c r="J26">
+        <v>0</v>
+      </c>
+      <c r="K26">
+        <v>1</v>
+      </c>
+      <c r="L26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12">
       <c r="A27" t="s">
         <v>26</v>
       </c>
       <c r="B27">
-        <v>405</v>
+        <v>1378</v>
       </c>
       <c r="C27">
-        <v>392</v>
+        <v>1373</v>
       </c>
       <c r="D27">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E27">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F27">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+      <c r="I27">
+        <v>0</v>
+      </c>
+      <c r="J27">
+        <v>0</v>
+      </c>
+      <c r="K27">
+        <v>0</v>
+      </c>
+      <c r="L27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12">
+      <c r="A28" t="s">
+        <v>27</v>
+      </c>
+      <c r="B28">
+        <v>403</v>
+      </c>
+      <c r="C28">
+        <v>390</v>
+      </c>
+      <c r="D28">
+        <v>3</v>
+      </c>
+      <c r="E28">
+        <v>2</v>
+      </c>
+      <c r="F28">
+        <v>8</v>
+      </c>
+      <c r="G28">
+        <v>0</v>
+      </c>
+      <c r="H28">
+        <v>0</v>
+      </c>
+      <c r="I28">
+        <v>0</v>
+      </c>
+      <c r="J28">
+        <v>0</v>
+      </c>
+      <c r="K28">
+        <v>7</v>
+      </c>
+      <c r="L28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12">
+      <c r="A29" t="s">
+        <v>28</v>
+      </c>
+      <c r="B29">
+        <v>220</v>
+      </c>
+      <c r="C29">
+        <v>213</v>
+      </c>
+      <c r="D29">
+        <v>2</v>
+      </c>
+      <c r="E29">
+        <v>0</v>
+      </c>
+      <c r="F29">
+        <v>5</v>
+      </c>
+      <c r="G29">
+        <v>0</v>
+      </c>
+      <c r="H29">
+        <v>0</v>
+      </c>
+      <c r="I29">
+        <v>0</v>
+      </c>
+      <c r="J29">
+        <v>0</v>
+      </c>
+      <c r="K29">
+        <v>1</v>
+      </c>
+      <c r="L29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12">
+      <c r="A30" t="s">
+        <v>29</v>
+      </c>
+      <c r="B30">
+        <v>1140</v>
+      </c>
+      <c r="C30">
+        <v>1134</v>
+      </c>
+      <c r="D30">
+        <v>2</v>
+      </c>
+      <c r="E30">
+        <v>2</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+      <c r="G30">
+        <v>1</v>
+      </c>
+      <c r="H30">
+        <v>0</v>
+      </c>
+      <c r="I30">
+        <v>0</v>
+      </c>
+      <c r="J30">
+        <v>0</v>
+      </c>
+      <c r="K30">
+        <v>1</v>
+      </c>
+      <c r="L30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12">
+      <c r="A31" t="s">
+        <v>30</v>
+      </c>
+      <c r="B31">
+        <v>411</v>
+      </c>
+      <c r="C31">
+        <v>347</v>
+      </c>
+      <c r="D31">
+        <v>2</v>
+      </c>
+      <c r="E31">
+        <v>11</v>
+      </c>
+      <c r="F31">
+        <v>51</v>
+      </c>
+      <c r="G31">
+        <v>0</v>
+      </c>
+      <c r="H31">
+        <v>0</v>
+      </c>
+      <c r="I31">
+        <v>0</v>
+      </c>
+      <c r="J31">
+        <v>0</v>
+      </c>
+      <c r="K31">
+        <v>40</v>
+      </c>
+      <c r="L31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12">
+      <c r="A32" t="s">
+        <v>31</v>
+      </c>
+      <c r="B32">
+        <v>2624</v>
+      </c>
+      <c r="C32">
+        <v>2540</v>
+      </c>
+      <c r="D32">
+        <v>2</v>
+      </c>
+      <c r="E32">
+        <v>16</v>
+      </c>
+      <c r="F32">
+        <v>46</v>
+      </c>
+      <c r="G32">
+        <v>0</v>
+      </c>
+      <c r="H32">
+        <v>0</v>
+      </c>
+      <c r="I32">
+        <v>2</v>
+      </c>
+      <c r="J32">
+        <v>20</v>
+      </c>
+      <c r="K32">
+        <v>14</v>
+      </c>
+      <c r="L32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12">
+      <c r="A33" t="s">
+        <v>32</v>
+      </c>
+      <c r="B33">
+        <v>993</v>
+      </c>
+      <c r="C33">
+        <v>863</v>
+      </c>
+      <c r="D33">
+        <v>1</v>
+      </c>
+      <c r="E33">
+        <v>3</v>
+      </c>
+      <c r="F33">
+        <v>124</v>
+      </c>
+      <c r="G33">
+        <v>1</v>
+      </c>
+      <c r="H33">
+        <v>1</v>
+      </c>
+      <c r="I33">
+        <v>0</v>
+      </c>
+      <c r="J33">
+        <v>0</v>
+      </c>
+      <c r="K33">
+        <v>7</v>
+      </c>
+      <c r="L33">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12">
+      <c r="A34" t="s">
+        <v>33</v>
+      </c>
+      <c r="B34">
+        <v>481</v>
+      </c>
+      <c r="C34">
+        <v>266</v>
+      </c>
+      <c r="D34">
+        <v>1</v>
+      </c>
+      <c r="E34">
+        <v>5</v>
+      </c>
+      <c r="F34">
+        <v>209</v>
+      </c>
+      <c r="G34">
+        <v>0</v>
+      </c>
+      <c r="H34">
+        <v>0</v>
+      </c>
+      <c r="I34">
+        <v>0</v>
+      </c>
+      <c r="J34">
+        <v>0</v>
+      </c>
+      <c r="K34">
+        <v>198</v>
+      </c>
+      <c r="L34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12">
+      <c r="A35" t="s">
+        <v>34</v>
+      </c>
+      <c r="B35">
+        <v>638</v>
+      </c>
+      <c r="C35">
+        <v>634</v>
+      </c>
+      <c r="D35">
+        <v>1</v>
+      </c>
+      <c r="E35">
+        <v>0</v>
+      </c>
+      <c r="F35">
+        <v>3</v>
+      </c>
+      <c r="G35">
+        <v>0</v>
+      </c>
+      <c r="H35">
+        <v>0</v>
+      </c>
+      <c r="I35">
+        <v>0</v>
+      </c>
+      <c r="J35">
+        <v>0</v>
+      </c>
+      <c r="K35">
+        <v>2</v>
+      </c>
+      <c r="L35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12">
+      <c r="A36" t="s">
+        <v>35</v>
+      </c>
+      <c r="B36">
+        <v>272</v>
+      </c>
+      <c r="C36">
+        <v>267</v>
+      </c>
+      <c r="D36">
+        <v>1</v>
+      </c>
+      <c r="E36">
+        <v>1</v>
+      </c>
+      <c r="F36">
+        <v>3</v>
+      </c>
+      <c r="G36">
+        <v>0</v>
+      </c>
+      <c r="H36">
+        <v>0</v>
+      </c>
+      <c r="I36">
+        <v>0</v>
+      </c>
+      <c r="J36">
+        <v>0</v>
+      </c>
+      <c r="K36">
+        <v>3</v>
+      </c>
+      <c r="L36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12">
+      <c r="A37" t="s">
+        <v>36</v>
+      </c>
+      <c r="B37">
+        <v>1082</v>
+      </c>
+      <c r="C37">
+        <v>985</v>
+      </c>
+      <c r="D37">
+        <v>1</v>
+      </c>
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>96</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+      <c r="J37">
+        <v>0</v>
+      </c>
+      <c r="K37">
+        <v>0</v>
+      </c>
+      <c r="L37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12">
+      <c r="A38" t="s">
+        <v>37</v>
+      </c>
+      <c r="B38">
+        <v>1345</v>
+      </c>
+      <c r="C38">
+        <v>1278</v>
+      </c>
+      <c r="D38">
+        <v>1</v>
+      </c>
+      <c r="E38">
+        <v>28</v>
+      </c>
+      <c r="F38">
+        <v>38</v>
+      </c>
+      <c r="G38">
+        <v>0</v>
+      </c>
+      <c r="H38">
+        <v>0</v>
+      </c>
+      <c r="I38">
+        <v>0</v>
+      </c>
+      <c r="J38">
+        <v>0</v>
+      </c>
+      <c r="K38">
+        <v>15</v>
+      </c>
+      <c r="L38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12">
+      <c r="A39" t="s">
+        <v>38</v>
+      </c>
+      <c r="B39">
+        <v>225</v>
+      </c>
+      <c r="C39">
+        <v>217</v>
+      </c>
+      <c r="D39">
+        <v>0</v>
+      </c>
+      <c r="E39">
+        <v>0</v>
+      </c>
+      <c r="F39">
+        <v>7</v>
+      </c>
+      <c r="G39">
+        <v>1</v>
+      </c>
+      <c r="H39">
+        <v>0</v>
+      </c>
+      <c r="I39">
+        <v>0</v>
+      </c>
+      <c r="J39">
+        <v>0</v>
+      </c>
+      <c r="K39">
+        <v>7</v>
+      </c>
+      <c r="L39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12">
+      <c r="A40" t="s">
+        <v>39</v>
+      </c>
+      <c r="B40">
+        <v>107</v>
+      </c>
+      <c r="C40">
+        <v>104</v>
+      </c>
+      <c r="D40">
+        <v>0</v>
+      </c>
+      <c r="E40">
+        <v>1</v>
+      </c>
+      <c r="F40">
+        <v>2</v>
+      </c>
+      <c r="G40">
+        <v>0</v>
+      </c>
+      <c r="H40">
+        <v>0</v>
+      </c>
+      <c r="I40">
+        <v>0</v>
+      </c>
+      <c r="J40">
+        <v>0</v>
+      </c>
+      <c r="K40">
+        <v>1</v>
+      </c>
+      <c r="L40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12">
+      <c r="A41" t="s">
+        <v>40</v>
+      </c>
+      <c r="B41">
+        <v>214</v>
+      </c>
+      <c r="C41">
+        <v>182</v>
+      </c>
+      <c r="D41">
+        <v>0</v>
+      </c>
+      <c r="E41">
+        <v>32</v>
+      </c>
+      <c r="F41">
+        <v>0</v>
+      </c>
+      <c r="G41">
+        <v>0</v>
+      </c>
+      <c r="H41">
+        <v>0</v>
+      </c>
+      <c r="I41">
+        <v>0</v>
+      </c>
+      <c r="J41">
+        <v>0</v>
+      </c>
+      <c r="K41">
+        <v>0</v>
+      </c>
+      <c r="L41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12">
+      <c r="A42" t="s">
+        <v>41</v>
+      </c>
+      <c r="B42">
+        <v>221</v>
+      </c>
+      <c r="C42">
+        <v>221</v>
+      </c>
+      <c r="D42">
+        <v>0</v>
+      </c>
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+      <c r="H42">
+        <v>0</v>
+      </c>
+      <c r="I42">
+        <v>0</v>
+      </c>
+      <c r="J42">
+        <v>0</v>
+      </c>
+      <c r="K42">
+        <v>0</v>
+      </c>
+      <c r="L42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12">
+      <c r="A43" t="s">
+        <v>42</v>
+      </c>
+      <c r="B43">
+        <v>120</v>
+      </c>
+      <c r="C43">
+        <v>118</v>
+      </c>
+      <c r="D43">
+        <v>0</v>
+      </c>
+      <c r="E43">
+        <v>0</v>
+      </c>
+      <c r="F43">
+        <v>2</v>
+      </c>
+      <c r="G43">
+        <v>0</v>
+      </c>
+      <c r="H43">
+        <v>0</v>
+      </c>
+      <c r="I43">
+        <v>0</v>
+      </c>
+      <c r="J43">
+        <v>0</v>
+      </c>
+      <c r="K43">
+        <v>0</v>
+      </c>
+      <c r="L43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12">
+      <c r="A44" t="s">
+        <v>43</v>
+      </c>
+      <c r="B44">
+        <v>563</v>
+      </c>
+      <c r="C44">
+        <v>560</v>
+      </c>
+      <c r="D44">
+        <v>0</v>
+      </c>
+      <c r="E44">
+        <v>1</v>
+      </c>
+      <c r="F44">
+        <v>1</v>
+      </c>
+      <c r="G44">
+        <v>1</v>
+      </c>
+      <c r="H44">
+        <v>0</v>
+      </c>
+      <c r="I44">
+        <v>0</v>
+      </c>
+      <c r="J44">
+        <v>0</v>
+      </c>
+      <c r="K44">
+        <v>1</v>
+      </c>
+      <c r="L44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12">
+      <c r="A45" t="s">
+        <v>44</v>
+      </c>
+      <c r="B45">
+        <v>539</v>
+      </c>
+      <c r="C45">
+        <v>538</v>
+      </c>
+      <c r="D45">
+        <v>0</v>
+      </c>
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>1</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+      <c r="I45">
+        <v>0</v>
+      </c>
+      <c r="J45">
+        <v>0</v>
+      </c>
+      <c r="K45">
+        <v>0</v>
+      </c>
+      <c r="L45">
         <v>0</v>
       </c>
     </row>
